--- a/KlasorlemeYapisi_OrnekKlasorler/RPA_CONFIG_FILES/MID001_GiderlerinSistemeGirilmesi2/Config.xlsx
+++ b/KlasorlemeYapisi_OrnekKlasorler/RPA_CONFIG_FILES/MID001_GiderlerinSistemeGirilmesi2/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fince\Documents\UIPATH_WORKSPACE\MID001_GiderlerinSistemeGirilmesi\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_CONFIG_FILES\MID001_GiderlerinSistemeGirilmesi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC236C01-1758-473F-A910-5CFA50DB34CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF908249-1680-4C1C-82D5-1700BF4CFA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="2745" windowWidth="16860" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>FIHOPA_ADMIN_PROD</t>
+  </si>
+  <si>
+    <t>Input bilgileri</t>
+  </si>
+  <si>
+    <t>inputExcelName</t>
+  </si>
+  <si>
+    <t>InputFileTemplate.xlsx</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
   <dimension ref="A1:AA997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -660,8 +669,45 @@
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:27" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:27" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:27" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:27" ht="14.25" customHeight="1"/>
